--- a/regionseng/7/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/7/hotels and restaurants/hotels and restaurants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -537,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P14"/>
+      <selection activeCell="R3" sqref="R3:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -549,7 +549,7 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:18">
       <c r="A1" s="11" t="s">
         <v>4</v>
       </c>
@@ -564,7 +564,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:18">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -577,7 +577,7 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:18">
       <c r="A3" s="4"/>
       <c r="B3" s="22">
         <v>2006</v>
@@ -624,8 +624,14 @@
       <c r="P3" s="23">
         <v>2020</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3" s="23">
+        <v>2021</v>
+      </c>
+      <c r="R3" s="23">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
@@ -674,8 +680,14 @@
       <c r="P4" s="6">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="R4" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="14" t="s">
         <v>6</v>
       </c>
@@ -724,8 +736,14 @@
       <c r="P5" s="7">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5" s="7">
+        <v>3.4</v>
+      </c>
+      <c r="R5" s="7">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="14" t="s">
         <v>7</v>
       </c>
@@ -774,8 +792,14 @@
       <c r="P6" s="8">
         <v>76</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6" s="8">
+        <v>105</v>
+      </c>
+      <c r="R6" s="8">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="14" t="s">
         <v>8</v>
       </c>
@@ -824,8 +848,14 @@
       <c r="P7" s="8">
         <v>74</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7" s="8">
+        <v>76</v>
+      </c>
+      <c r="R7" s="8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="14" t="s">
         <v>9</v>
       </c>
@@ -874,8 +904,14 @@
       <c r="P8" s="7">
         <v>321.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8" s="7">
+        <v>606.5</v>
+      </c>
+      <c r="R8" s="7">
+        <v>877.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="14" t="s">
         <v>10</v>
       </c>
@@ -924,8 +960,14 @@
       <c r="P9" s="7">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9" s="7">
+        <v>2.1</v>
+      </c>
+      <c r="R9" s="7">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="14" t="s">
         <v>11</v>
       </c>
@@ -974,8 +1016,14 @@
       <c r="P10" s="7">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="R10" s="7">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="14" t="s">
         <v>12</v>
       </c>
@@ -1024,8 +1072,14 @@
       <c r="P11" s="9">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11" s="9">
+        <v>1.4</v>
+      </c>
+      <c r="R11" s="9">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="14" t="s">
         <v>13</v>
       </c>
@@ -1074,8 +1128,14 @@
       <c r="P12" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="14" t="s">
         <v>14</v>
       </c>
@@ -1124,8 +1184,14 @@
       <c r="P13" s="7">
         <v>1.1000000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13" s="7">
+        <v>2.4</v>
+      </c>
+      <c r="R13" s="7">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
@@ -1174,11 +1240,17 @@
       <c r="P14" s="6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="12"/>
     </row>
-    <row r="16" spans="1:16" s="1" customFormat="1" ht="12.75">
+    <row r="16" spans="1:18" s="1" customFormat="1" ht="12.75">
       <c r="A16" s="13" t="s">
         <v>2</v>
       </c>

--- a/regionseng/7/hotels and restaurants/hotels and restaurants.xlsx
+++ b/regionseng/7/hotels and restaurants/hotels and restaurants.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="16">
   <si>
     <t>_</t>
   </si>
@@ -71,7 +71,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,12 +123,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <i/>
       <sz val="9"/>
       <color theme="1"/>
@@ -150,7 +144,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -173,22 +167,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -206,15 +189,10 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -234,13 +212,10 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -537,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3:R14"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -549,8 +524,8 @@
     <col min="2" max="6" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:19">
+      <c r="A1" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="2"/>
@@ -564,7 +539,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:19">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -577,86 +552,89 @@
       <c r="J2" s="3"/>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" s="4"/>
-      <c r="B3" s="22">
+      <c r="B3" s="18">
         <v>2006</v>
       </c>
-      <c r="C3" s="22">
+      <c r="C3" s="18">
         <v>2007</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="18">
         <v>2008</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="18">
         <v>2009</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="18">
         <v>2010</v>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="18">
         <v>2011</v>
       </c>
-      <c r="H3" s="22">
+      <c r="H3" s="18">
         <v>2012</v>
       </c>
-      <c r="I3" s="22">
+      <c r="I3" s="18">
         <v>2013</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="19">
         <v>2014</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="19">
         <v>2015</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="19">
         <v>2016</v>
       </c>
-      <c r="M3" s="23">
+      <c r="M3" s="19">
         <v>2017</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="19">
         <v>2018</v>
       </c>
-      <c r="O3" s="23">
+      <c r="O3" s="19">
         <v>2019</v>
       </c>
-      <c r="P3" s="23">
+      <c r="P3" s="19">
         <v>2020</v>
       </c>
-      <c r="Q3" s="23">
+      <c r="Q3" s="19">
         <v>2021</v>
       </c>
-      <c r="R3" s="23">
+      <c r="R3" s="19">
         <v>2022</v>
       </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="14" t="s">
+      <c r="S3" s="19">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="C4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="G4" s="16">
+      <c r="B4" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="F4" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G4" s="13">
         <v>0.4</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="13">
         <v>0.6</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="13">
         <v>0.8</v>
       </c>
       <c r="J4" s="6">
@@ -686,45 +664,48 @@
       <c r="R4" s="6">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="14" t="s">
+      <c r="S4" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="G5" s="16">
+      <c r="B5" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="G5" s="13">
         <v>0.4</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="13">
         <v>0.6</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="13">
         <v>0.8</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="13">
         <v>0.8</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="13">
         <v>0.5</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="13">
         <v>2.8</v>
       </c>
-      <c r="M5" s="16">
+      <c r="M5" s="13">
         <v>4.5</v>
       </c>
       <c r="N5" s="7">
@@ -742,45 +723,48 @@
       <c r="R5" s="7">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" s="14" t="s">
+      <c r="S5" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="14">
         <v>85</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="14">
         <v>42</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="14">
         <v>45</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="14">
         <v>36</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="14">
         <v>36</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="14">
         <v>29</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="14">
         <v>55</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="14">
         <v>170</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="14">
         <v>89</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="14">
         <v>64</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="14">
         <v>170</v>
       </c>
-      <c r="M6" s="17">
+      <c r="M6" s="14">
         <v>186</v>
       </c>
       <c r="N6" s="8">
@@ -798,45 +782,48 @@
       <c r="R6" s="8">
         <v>110.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" s="14" t="s">
+      <c r="S6" s="8">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="A7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="14">
         <v>63</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="14">
         <v>27</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="14">
         <v>33</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="14">
         <v>26</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="14">
         <v>20</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="14">
         <v>22</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="14">
         <v>50</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="14">
         <v>170</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="14">
         <v>87</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="14">
         <v>56</v>
       </c>
-      <c r="L7" s="17">
+      <c r="L7" s="14">
         <v>100</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="14">
         <v>162</v>
       </c>
       <c r="N7" s="8">
@@ -854,45 +841,48 @@
       <c r="R7" s="8">
         <v>66</v>
       </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="14" t="s">
+      <c r="S7" s="8">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
+      <c r="A8" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="13">
         <v>35.5</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="13">
         <v>27.9</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="13">
         <v>84.4</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="13">
         <v>107.9</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="13">
         <v>124.4</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="13">
         <v>55.5</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="13">
         <v>144</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="13">
         <v>142.6</v>
       </c>
-      <c r="J8" s="16">
+      <c r="J8" s="13">
         <v>210.7</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="13">
         <v>117.4</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="13">
         <v>267.10000000000002</v>
       </c>
-      <c r="M8" s="16">
+      <c r="M8" s="13">
         <v>443</v>
       </c>
       <c r="N8" s="7">
@@ -910,45 +900,48 @@
       <c r="R8" s="7">
         <v>877.3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="14" t="s">
+      <c r="S8" s="7">
+        <v>938.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
+      <c r="A9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="G9" s="16">
+      <c r="B9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G9" s="13">
         <v>0.3</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="13">
         <v>0.3</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="13">
         <v>0.3</v>
       </c>
-      <c r="J9" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="L9" s="16">
+      <c r="J9" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K9" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="L9" s="13">
         <v>0.6</v>
       </c>
-      <c r="M9" s="16">
+      <c r="M9" s="13">
         <v>0.9</v>
       </c>
       <c r="N9" s="7">
@@ -966,45 +959,48 @@
       <c r="R9" s="7">
         <v>1.4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" s="14" t="s">
+      <c r="S9" s="7">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
+      <c r="A10" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="16">
-        <v>0</v>
-      </c>
-      <c r="C10" s="16">
-        <v>0</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="I10" s="16">
+      <c r="B10" s="13">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="13">
         <v>0.3</v>
       </c>
-      <c r="J10" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0.1</v>
-      </c>
-      <c r="L10" s="16">
+      <c r="J10" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="L10" s="13">
         <v>0.3</v>
       </c>
-      <c r="M10" s="16">
+      <c r="M10" s="13">
         <v>0.9</v>
       </c>
       <c r="N10" s="7">
@@ -1022,157 +1018,166 @@
       <c r="R10" s="7">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" s="14" t="s">
+      <c r="S10" s="7">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
+      <c r="A11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="19">
-        <v>0</v>
-      </c>
-      <c r="D11" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="E11" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="F11" s="19">
-        <v>0</v>
-      </c>
-      <c r="G11" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="H11" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="I11" s="19">
+      <c r="B11" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="H11" s="16">
+        <v>0.2</v>
+      </c>
+      <c r="I11" s="16">
         <v>0.5</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="16">
         <v>0.6</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="16">
         <v>0.3</v>
       </c>
-      <c r="L11" s="19">
+      <c r="L11" s="13">
         <v>2.2000000000000002</v>
       </c>
-      <c r="M11" s="19">
+      <c r="M11" s="13">
         <v>3.6</v>
       </c>
-      <c r="N11" s="9">
+      <c r="N11" s="7">
         <v>4.5</v>
       </c>
-      <c r="O11" s="9">
+      <c r="O11" s="7">
         <v>2.8</v>
       </c>
-      <c r="P11" s="9">
+      <c r="P11" s="7">
         <v>0.7</v>
       </c>
-      <c r="Q11" s="9">
+      <c r="Q11" s="7">
         <v>1.4</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="7">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" s="14" t="s">
+      <c r="S11" s="7">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="A12" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="18">
-        <v>0</v>
-      </c>
-      <c r="C12" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="D12" s="19">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="I12" s="16">
-        <v>0</v>
-      </c>
-      <c r="J12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="K12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="M12" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="N12" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="P12" s="10">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="R12" s="10">
+      <c r="B12" s="15">
+        <v>0</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N12" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="7">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" s="14" t="s">
+      <c r="S12" s="7">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="D13" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="F13" s="18">
-        <v>0.1</v>
-      </c>
-      <c r="G13" s="18">
+      <c r="C13" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F13" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="15">
         <v>0.3</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="13">
         <v>0.3</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="13">
         <v>0.3</v>
       </c>
-      <c r="J13" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="K13" s="16">
-        <v>0.2</v>
-      </c>
-      <c r="L13" s="16">
+      <c r="J13" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="L13" s="13">
         <v>3.8</v>
       </c>
-      <c r="M13" s="16">
+      <c r="M13" s="13">
         <v>3.9261300000000001</v>
       </c>
       <c r="N13" s="7">
@@ -1190,73 +1195,76 @@
       <c r="R13" s="7">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" s="15" t="s">
+      <c r="S13" s="7">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="A14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="K14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="L14" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="M14" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="R14" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" s="12"/>
-    </row>
-    <row r="16" spans="1:18" s="1" customFormat="1" ht="12.75">
-      <c r="A16" s="13" t="s">
+      <c r="C14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="S14" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="1" customFormat="1" ht="12.75">
+      <c r="A16" s="10" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:1" s="1" customFormat="1" ht="12.75">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="10" t="s">
         <v>3</v>
       </c>
     </row>
